--- a/Ke_hoach_lam_viec_nhom_15.xlsx
+++ b/Ke_hoach_lam_viec_nhom_15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhanhSan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BAA1B9-71EF-4A58-A712-A416D4C5DEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B3280-2DCC-4623-8D13-61E30B1AB232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C763F00A-0CB0-411F-8A66-CA2F1EE37B6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C763F00A-0CB0-411F-8A66-CA2F1EE37B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -202,13 +202,25 @@
   </si>
   <si>
     <t>Xác định các tác nhân và các use case</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Lâm</t>
+  </si>
+  <si>
+    <t>Chu Quốc Khánh</t>
+  </si>
+  <si>
+    <t>Phan Văn Khánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Lâm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,19 +260,6 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -304,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,22 +317,19 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -344,13 +340,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D704ED-787C-4E63-BB40-E06F05627C54}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,69 +673,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -781,7 +770,7 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3">
@@ -810,7 +799,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -839,7 +828,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
@@ -868,7 +857,7 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="3">
@@ -897,7 +886,7 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="3">
@@ -922,874 +911,1133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>45572</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>45573</v>
+      </c>
       <c r="E12" s="3">
         <v>45578</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="3">
+        <v>45578</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>45572</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>45573</v>
+      </c>
       <c r="E13" s="3">
         <v>45578</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="3">
+        <v>45578</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4">
         <v>45572</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3">
+        <v>45573</v>
+      </c>
       <c r="E14" s="4">
         <v>45578</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="3">
+        <v>45578</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4">
         <v>45572</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3">
+        <v>45573</v>
+      </c>
       <c r="E15" s="4">
         <v>45578</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="3">
+        <v>45578</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>45579</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>45579</v>
+      </c>
       <c r="E16" s="4">
         <v>45585</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>45585</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="4">
         <v>45579</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>45579</v>
+      </c>
       <c r="E17" s="4">
         <v>45585</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="4">
+        <v>45585</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="4">
         <v>45579</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>45579</v>
+      </c>
       <c r="E18" s="4">
         <v>45585</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>45585</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="4">
         <v>45579</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>45579</v>
+      </c>
       <c r="E19" s="4">
         <v>45585</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="4">
+        <v>45585</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3">
         <v>45586</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>45586</v>
+      </c>
       <c r="E20" s="3">
         <v>45592</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="F20" s="3">
+        <v>45592</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>45586</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>45586</v>
+      </c>
       <c r="E21" s="3">
         <v>45592</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="3">
+        <v>45592</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3">
         <v>45586</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>45586</v>
+      </c>
       <c r="E22" s="3">
         <v>45592</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="3">
+        <v>45592</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>45586</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>45586</v>
+      </c>
       <c r="E23" s="3">
         <v>45592</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="3">
+        <v>45592</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>18</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3">
         <v>45593</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>45593</v>
+      </c>
       <c r="E24" s="3">
         <v>45599</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="3">
+        <v>45599</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3">
         <v>45593</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>45593</v>
+      </c>
       <c r="E25" s="3">
         <v>45599</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="F25" s="3">
+        <v>45599</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="3">
         <v>45593</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>45593</v>
+      </c>
       <c r="E26" s="3">
         <v>45599</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="3">
+        <v>45599</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="3">
         <v>45593</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>45593</v>
+      </c>
       <c r="E27" s="3">
         <v>45599</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
+      <c r="F27" s="3">
+        <v>45599</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="3">
         <v>45600</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>45600</v>
+      </c>
       <c r="E28" s="3">
         <v>45606</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="3">
+        <v>45606</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>23</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="3">
         <v>45600</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>45600</v>
+      </c>
       <c r="E29" s="3">
         <v>45606</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="F29" s="3">
+        <v>45606</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>24</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3">
         <v>45600</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>45600</v>
+      </c>
       <c r="E30" s="3">
         <v>45606</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="3">
+        <v>45606</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3">
         <v>45600</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>45600</v>
+      </c>
       <c r="E31" s="3">
         <v>45606</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="3">
+        <v>45606</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="3">
         <v>45607</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>45607</v>
+      </c>
       <c r="E32" s="3">
         <v>45613</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="3">
+        <v>45613</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>27</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3">
         <v>45607</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>45607</v>
+      </c>
       <c r="E33" s="3">
         <v>45613</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="F33" s="3">
+        <v>45613</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>28</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3">
         <v>45607</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>45607</v>
+      </c>
       <c r="E34" s="3">
         <v>45613</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="F34" s="3">
+        <v>45613</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>29</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>45607</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10">
+      <c r="D35" s="3">
+        <v>45607</v>
+      </c>
+      <c r="E35" s="7">
         <v>45613</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="F35" s="3">
+        <v>45613</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>30</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>45614</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10">
+      <c r="D36" s="7">
+        <v>45614</v>
+      </c>
+      <c r="E36" s="7">
         <v>45620</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="F36" s="7">
+        <v>45619</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>31</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>45614</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
+      <c r="D37" s="7">
+        <v>45614</v>
+      </c>
+      <c r="E37" s="7">
         <v>45620</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="7">
+        <v>45619</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>32</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>45614</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10">
+      <c r="D38" s="7">
+        <v>45614</v>
+      </c>
+      <c r="E38" s="7">
         <v>45620</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F38" s="7">
+        <v>45619</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>33</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>45614</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10">
+      <c r="D39" s="7">
+        <v>45614</v>
+      </c>
+      <c r="E39" s="7">
         <v>45620</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="F39" s="7">
+        <v>45619</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>34</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>45621</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
         <v>45627</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>45621</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
         <v>45627</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>36</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>45621</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
         <v>45627</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>37</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>45621</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
         <v>45627</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>38</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>45628</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7">
         <v>45634</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>39</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>45628</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
         <v>45634</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>40</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>45628</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
         <v>45634</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>45628</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
         <v>45634</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>45635</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
         <v>45641</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>45635</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
         <v>45641</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>45635</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
         <v>45641</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>45635</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
         <v>45641</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>46</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>45642</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
         <v>45648</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>47</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>45642</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
         <v>45648</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>48</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>45642</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
         <v>45648</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>49</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>45642</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
         <v>45648</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="A56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
+      <c r="A57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Ke_hoach_lam_viec_nhom_15.xlsx
+++ b/Ke_hoach_lam_viec_nhom_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhanhSan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B3280-2DCC-4623-8D13-61E30B1AB232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEB7D3-CD30-4EF5-81C1-6560A81F7A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C763F00A-0CB0-411F-8A66-CA2F1EE37B6C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -81,75 +81,6 @@
     <t>Thành viên tham dự - Participants :   Hoàng Văn Lâm, Chu Quốc Khánh, Phan Văn Khánh, Nguyễn Thanh Lâm</t>
   </si>
   <si>
-    <t>Mô tả chi tiết use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Mô tả chi tiết use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Mô tả chi tiết use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Mô tả chi tiết use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu cho use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu cho use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu cho use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu cho use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng dữ liệu cho use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng dữ liệu cho use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng dữ liệu cho use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng dữ liệu cho use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện màn hình cho use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện màn hình cho use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Thiết kế giao diện màn hình cho use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
     <t>Viết báo cáo chương 3</t>
   </si>
   <si>
@@ -165,33 +96,6 @@
     <t>Thiết kế cơ sở dữ liệu cho hệ thống</t>
   </si>
   <si>
-    <t>Thiết kế giao diện màn hình cho use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ lớp phân tích cho use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ lớp phân tích cho use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ lớp phân tích cho use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ lớp phân tích cho use case Đặt hàng</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình cho use case Đăng nhập</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình cho use case Đăng ký</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình cho use case Tra cứu sản phẩm</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình cho use case Đặt hàng</t>
-  </si>
-  <si>
     <t>Hoàn thiệ chương 2</t>
   </si>
   <si>
@@ -214,13 +118,109 @@
   </si>
   <si>
     <t>Nguyễn Thanh Lâm</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Xác định các yêu cầu về dữ liệu cho use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Thiết kế các bảng dữ liệu cho use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện màn hình cho use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ lớp phân tích cho use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Vẽ hình dung màn hình cho use case Đăng kí, quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Xác định các yêu cầu về dữ liệu cho use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Thiết kế các bảng dữ liệu cho use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện màn hình cho use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ lớp phân tích cho use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Vẽ hình dung màn hình cho use case Đăng nhập, Xem thông tin sản phẩm, Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Xác định các yêu cầu về dữ liệu cho use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Thiết kế các bảng dữ liệu cho use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện màn hình cho use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ lớp phân tích cho use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Vẽ hình dung màn hình cho use case Tra cứu sản phẩm, Quản Lý Tài Khoản</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ trình tự và lớp phân tích use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Xác định các yêu cầu về dữ liệu cho use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Thiết kế các bảng dữ liệu cho use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện màn hình cho use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ lớp phân tích cho use case Quản lý đơn đặt</t>
+  </si>
+  <si>
+    <t>Vẽ hình dung màn hình cho use case Quản lý đơn đặt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -303,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +337,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -656,14 +666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D704ED-787C-4E63-BB40-E06F05627C54}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
@@ -673,69 +683,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -748,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -858,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>45565</v>
@@ -887,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>45565</v>
@@ -916,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>45572</v>
@@ -934,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>11</v>
@@ -945,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>45572</v>
@@ -963,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
@@ -974,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
         <v>45572</v>
@@ -992,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>11</v>
@@ -1003,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4">
         <v>45572</v>
@@ -1021,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>11</v>
@@ -1032,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <v>45579</v>
@@ -1050,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>11</v>
@@ -1061,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>45579</v>
@@ -1079,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>11</v>
@@ -1090,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <v>45579</v>
@@ -1108,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>11</v>
@@ -1119,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4">
         <v>45579</v>
@@ -1137,18 +1147,18 @@
         <v>11</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
         <v>45586</v>
@@ -1166,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>11</v>
@@ -1177,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>45586</v>
@@ -1195,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>11</v>
@@ -1206,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>45586</v>
@@ -1224,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>11</v>
@@ -1235,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3">
         <v>45586</v>
@@ -1253,18 +1263,18 @@
         <v>11</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
         <v>45593</v>
@@ -1282,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>11</v>
@@ -1293,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>45593</v>
@@ -1311,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>11</v>
@@ -1322,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3">
         <v>45593</v>
@@ -1340,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>11</v>
@@ -1351,7 +1361,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3">
         <v>45593</v>
@@ -1369,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>11</v>
@@ -1380,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3">
         <v>45600</v>
@@ -1398,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>11</v>
@@ -1409,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <v>45600</v>
@@ -1427,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>11</v>
@@ -1438,7 +1448,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3">
         <v>45600</v>
@@ -1456,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>11</v>
@@ -1467,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
         <v>45600</v>
@@ -1485,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>11</v>
@@ -1496,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3">
         <v>45607</v>
@@ -1514,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>11</v>
@@ -1525,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3">
         <v>45607</v>
@@ -1543,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>11</v>
@@ -1554,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3">
         <v>45607</v>
@@ -1572,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>11</v>
@@ -1601,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>11</v>
@@ -1612,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7">
         <v>45614</v>
@@ -1630,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>11</v>
@@ -1641,7 +1651,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>45614</v>
@@ -1659,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>11</v>
@@ -1670,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7">
         <v>45614</v>
@@ -1688,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>11</v>
@@ -1699,7 +1709,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7">
         <v>45614</v>
@@ -1717,246 +1727,366 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C40" s="7">
         <v>45621</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>45621</v>
+      </c>
       <c r="E40" s="7">
         <v>45627</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40" s="7">
+        <v>45627</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7">
         <v>45621</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>45621</v>
+      </c>
       <c r="E41" s="7">
         <v>45627</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="F41" s="7">
+        <v>45627</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>45621</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>45621</v>
+      </c>
       <c r="E42" s="7">
         <v>45627</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="F42" s="7">
+        <v>45627</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C43" s="7">
         <v>45621</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <v>45621</v>
+      </c>
       <c r="E43" s="7">
         <v>45627</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="F43" s="7">
+        <v>45627</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>45628</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>45628</v>
+      </c>
       <c r="E44" s="7">
         <v>45634</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="F44" s="7">
+        <v>45634</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="7">
         <v>45628</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>45628</v>
+      </c>
       <c r="E45" s="7">
         <v>45634</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="F45" s="7">
+        <v>45634</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7">
         <v>45628</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>45628</v>
+      </c>
       <c r="E46" s="7">
         <v>45634</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="F46" s="7">
+        <v>45634</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7">
         <v>45628</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>45628</v>
+      </c>
       <c r="E47" s="7">
         <v>45634</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="F47" s="7">
+        <v>45634</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7">
         <v>45635</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>45635</v>
+      </c>
       <c r="E48" s="7">
         <v>45641</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F48" s="7">
+        <v>45641</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" s="7">
         <v>45635</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>45635</v>
+      </c>
       <c r="E49" s="7">
         <v>45641</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="F49" s="7">
+        <v>45641</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C50" s="7">
         <v>45635</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7">
+        <v>45635</v>
+      </c>
       <c r="E50" s="7">
         <v>45641</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="F50" s="7">
+        <v>45641</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="7">
         <v>45635</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7">
+        <v>45635</v>
+      </c>
       <c r="E51" s="7">
         <v>45641</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="F51" s="7">
+        <v>45641</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>46</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C52" s="7">
         <v>45642</v>
@@ -1975,7 +2105,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C53" s="7">
         <v>45642</v>
@@ -1994,7 +2124,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C54" s="7">
         <v>45642</v>
@@ -2013,7 +2143,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
         <v>45642</v>
